--- a/2018/Biomass Sampling Locations 2018.xlsx
+++ b/2018/Biomass Sampling Locations 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="23">
   <si>
     <t>x</t>
   </si>
@@ -85,7 +85,10 @@
     <t>_______</t>
   </si>
   <si>
-    <t>Loc</t>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,11 +1096,12 @@
     <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1113,8 +1117,11 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1127,11 +1134,8 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1144,11 +1148,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1161,11 +1162,8 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,11 +1176,8 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,11 +1190,8 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1212,11 +1204,8 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1229,11 +1218,8 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1246,11 +1232,8 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,11 +1246,8 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1280,11 +1260,8 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1297,11 +1274,8 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,11 +1288,8 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1331,11 +1302,8 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1348,11 +1316,8 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1365,11 +1330,8 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1382,11 +1344,8 @@
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,11 +1358,8 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1416,11 +1372,8 @@
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,11 +1386,8 @@
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1450,11 +1400,8 @@
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1467,11 +1414,8 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1484,11 +1428,8 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1501,11 +1442,8 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,11 +1456,8 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1535,11 +1470,8 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1552,11 +1484,8 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1569,11 +1498,8 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1586,11 +1512,8 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1603,11 +1526,8 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1620,11 +1540,8 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,11 +1554,8 @@
       <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -1654,11 +1568,8 @@
       <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1671,11 +1582,8 @@
       <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1688,11 +1596,8 @@
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -1705,11 +1610,8 @@
       <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1722,11 +1624,8 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,11 +1638,8 @@
       <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -1756,11 +1652,8 @@
       <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1773,11 +1666,8 @@
       <c r="D40" s="1">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -1790,11 +1680,8 @@
       <c r="D41" s="1">
         <v>2</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -1807,11 +1694,8 @@
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -1824,11 +1708,8 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -1841,11 +1722,8 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1858,11 +1736,8 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -1875,11 +1750,8 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -1892,11 +1764,8 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,11 +1778,8 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -1926,11 +1792,8 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -1943,11 +1806,8 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -1960,11 +1820,8 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -1977,11 +1834,8 @@
       <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -1994,11 +1848,8 @@
       <c r="D53" s="1">
         <v>2</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -2011,11 +1862,8 @@
       <c r="D54" s="1">
         <v>2</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -2028,11 +1876,8 @@
       <c r="D55" s="1">
         <v>2</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -2045,11 +1890,8 @@
       <c r="D56" s="1">
         <v>2</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>17</v>
       </c>
@@ -2062,11 +1904,8 @@
       <c r="D57" s="1">
         <v>2</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -2079,11 +1918,8 @@
       <c r="D58" s="1">
         <v>2</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -2096,11 +1932,8 @@
       <c r="D59" s="1">
         <v>2</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -2113,11 +1946,8 @@
       <c r="D60" s="1">
         <v>2</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -2130,11 +1960,8 @@
       <c r="D61" s="1">
         <v>2</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -2147,11 +1974,8 @@
       <c r="D62" s="1">
         <v>1</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -2164,11 +1988,8 @@
       <c r="D63" s="1">
         <v>1</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -2181,11 +2002,8 @@
       <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -2198,11 +2016,8 @@
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -2215,11 +2030,8 @@
       <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -2232,11 +2044,8 @@
       <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -2249,11 +2058,8 @@
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -2266,11 +2072,8 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2283,11 +2086,8 @@
       <c r="D70" s="1">
         <v>1</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -2300,11 +2100,8 @@
       <c r="D71" s="1">
         <v>1</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
@@ -2317,11 +2114,8 @@
       <c r="D72" s="1">
         <v>2</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -2334,11 +2128,8 @@
       <c r="D73" s="1">
         <v>2</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>17</v>
       </c>
@@ -2351,11 +2142,8 @@
       <c r="D74" s="1">
         <v>2</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -2368,11 +2156,8 @@
       <c r="D75" s="1">
         <v>2</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -2385,11 +2170,8 @@
       <c r="D76" s="1">
         <v>2</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2402,11 +2184,8 @@
       <c r="D77" s="1">
         <v>2</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>17</v>
       </c>
@@ -2419,11 +2198,8 @@
       <c r="D78" s="1">
         <v>2</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
@@ -2436,11 +2212,8 @@
       <c r="D79" s="1">
         <v>2</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -2453,11 +2226,8 @@
       <c r="D80" s="1">
         <v>2</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>17</v>
       </c>
@@ -2470,11 +2240,8 @@
       <c r="D81" s="1">
         <v>2</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -2487,11 +2254,8 @@
       <c r="D82" s="1">
         <v>1</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -2504,11 +2268,8 @@
       <c r="D83" s="1">
         <v>1</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
@@ -2521,11 +2282,8 @@
       <c r="D84" s="1">
         <v>1</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
@@ -2538,11 +2296,8 @@
       <c r="D85" s="1">
         <v>1</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -2555,11 +2310,8 @@
       <c r="D86" s="1">
         <v>1</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -2572,11 +2324,8 @@
       <c r="D87" s="1">
         <v>1</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -2589,11 +2338,8 @@
       <c r="D88" s="1">
         <v>1</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>18</v>
       </c>
@@ -2606,11 +2352,8 @@
       <c r="D89" s="1">
         <v>1</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -2623,11 +2366,8 @@
       <c r="D90" s="1">
         <v>1</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
@@ -2640,11 +2380,8 @@
       <c r="D91" s="1">
         <v>1</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -2657,11 +2394,8 @@
       <c r="D92" s="1">
         <v>2</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -2674,11 +2408,8 @@
       <c r="D93" s="1">
         <v>2</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>18</v>
       </c>
@@ -2691,11 +2422,8 @@
       <c r="D94" s="1">
         <v>2</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>18</v>
       </c>
@@ -2708,11 +2436,8 @@
       <c r="D95" s="1">
         <v>2</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -2725,11 +2450,8 @@
       <c r="D96" s="1">
         <v>2</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>18</v>
       </c>
@@ -2742,11 +2464,8 @@
       <c r="D97" s="1">
         <v>2</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>18</v>
       </c>
@@ -2759,11 +2478,8 @@
       <c r="D98" s="1">
         <v>2</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
@@ -2776,11 +2492,8 @@
       <c r="D99" s="1">
         <v>2</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>18</v>
       </c>
@@ -2793,11 +2506,8 @@
       <c r="D100" s="1">
         <v>2</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
@@ -2810,11 +2520,8 @@
       <c r="D101" s="1">
         <v>2</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
@@ -2827,11 +2534,8 @@
       <c r="D102" s="1">
         <v>1</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
@@ -2844,11 +2548,8 @@
       <c r="D103" s="1">
         <v>1</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
@@ -2861,11 +2562,8 @@
       <c r="D104" s="1">
         <v>1</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
@@ -2878,11 +2576,8 @@
       <c r="D105" s="1">
         <v>1</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
@@ -2895,11 +2590,8 @@
       <c r="D106" s="1">
         <v>1</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>18</v>
       </c>
@@ -2912,11 +2604,8 @@
       <c r="D107" s="1">
         <v>1</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -2929,11 +2618,8 @@
       <c r="D108" s="1">
         <v>1</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
@@ -2946,11 +2632,8 @@
       <c r="D109" s="1">
         <v>1</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>18</v>
       </c>
@@ -2963,11 +2646,8 @@
       <c r="D110" s="1">
         <v>1</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>18</v>
       </c>
@@ -2980,11 +2660,8 @@
       <c r="D111" s="1">
         <v>1</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>18</v>
       </c>
@@ -2997,11 +2674,8 @@
       <c r="D112" s="1">
         <v>2</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>18</v>
       </c>
@@ -3014,11 +2688,8 @@
       <c r="D113" s="1">
         <v>2</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>18</v>
       </c>
@@ -3031,11 +2702,8 @@
       <c r="D114" s="1">
         <v>2</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>18</v>
       </c>
@@ -3048,11 +2716,8 @@
       <c r="D115" s="1">
         <v>2</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>18</v>
       </c>
@@ -3065,11 +2730,8 @@
       <c r="D116" s="1">
         <v>2</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -3082,11 +2744,8 @@
       <c r="D117" s="1">
         <v>2</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>18</v>
       </c>
@@ -3099,11 +2758,8 @@
       <c r="D118" s="1">
         <v>2</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
@@ -3116,11 +2772,8 @@
       <c r="D119" s="1">
         <v>2</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>18</v>
       </c>
@@ -3133,11 +2786,8 @@
       <c r="D120" s="1">
         <v>2</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>18</v>
       </c>
@@ -3150,11 +2800,8 @@
       <c r="D121" s="1">
         <v>2</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>18</v>
       </c>
@@ -3167,11 +2814,8 @@
       <c r="D122" s="1">
         <v>1</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>18</v>
       </c>
@@ -3184,11 +2828,8 @@
       <c r="D123" s="1">
         <v>1</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>18</v>
       </c>
@@ -3201,11 +2842,8 @@
       <c r="D124" s="1">
         <v>1</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
@@ -3218,11 +2856,8 @@
       <c r="D125" s="1">
         <v>1</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>18</v>
       </c>
@@ -3235,11 +2870,8 @@
       <c r="D126" s="1">
         <v>1</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>18</v>
       </c>
@@ -3252,11 +2884,8 @@
       <c r="D127" s="1">
         <v>1</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -3269,11 +2898,8 @@
       <c r="D128" s="1">
         <v>1</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -3286,11 +2912,8 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>18</v>
       </c>
@@ -3303,11 +2926,8 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
@@ -3320,11 +2940,8 @@
       <c r="D131" s="1">
         <v>1</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
@@ -3337,11 +2954,8 @@
       <c r="D132" s="1">
         <v>2</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -3354,11 +2968,8 @@
       <c r="D133" s="1">
         <v>2</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>18</v>
       </c>
@@ -3371,11 +2982,8 @@
       <c r="D134" s="1">
         <v>2</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>18</v>
       </c>
@@ -3388,11 +2996,8 @@
       <c r="D135" s="1">
         <v>2</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>18</v>
       </c>
@@ -3405,11 +3010,8 @@
       <c r="D136" s="1">
         <v>2</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>18</v>
       </c>
@@ -3422,11 +3024,8 @@
       <c r="D137" s="1">
         <v>2</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -3439,11 +3038,8 @@
       <c r="D138" s="1">
         <v>2</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -3456,11 +3052,8 @@
       <c r="D139" s="1">
         <v>2</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -3473,11 +3066,8 @@
       <c r="D140" s="1">
         <v>2</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -3490,11 +3080,8 @@
       <c r="D141" s="1">
         <v>2</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -3507,11 +3094,8 @@
       <c r="D142" s="1">
         <v>1</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -3524,11 +3108,8 @@
       <c r="D143" s="1">
         <v>1</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -3541,11 +3122,8 @@
       <c r="D144" s="1">
         <v>1</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -3558,11 +3136,8 @@
       <c r="D145" s="1">
         <v>1</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>18</v>
       </c>
@@ -3575,11 +3150,8 @@
       <c r="D146" s="1">
         <v>1</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>18</v>
       </c>
@@ -3592,11 +3164,8 @@
       <c r="D147" s="1">
         <v>1</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
@@ -3609,11 +3178,8 @@
       <c r="D148" s="1">
         <v>1</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
@@ -3626,11 +3192,8 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>18</v>
       </c>
@@ -3643,11 +3206,8 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
@@ -3660,11 +3220,8 @@
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>18</v>
       </c>
@@ -3677,11 +3234,8 @@
       <c r="D152" s="1">
         <v>2</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
@@ -3694,11 +3248,8 @@
       <c r="D153" s="1">
         <v>2</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>18</v>
       </c>
@@ -3711,11 +3262,8 @@
       <c r="D154" s="1">
         <v>2</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>18</v>
       </c>
@@ -3728,11 +3276,8 @@
       <c r="D155" s="1">
         <v>2</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>18</v>
       </c>
@@ -3745,11 +3290,8 @@
       <c r="D156" s="1">
         <v>2</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>18</v>
       </c>
@@ -3762,11 +3304,8 @@
       <c r="D157" s="1">
         <v>2</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>18</v>
       </c>
@@ -3779,11 +3318,8 @@
       <c r="D158" s="1">
         <v>2</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>18</v>
       </c>
@@ -3796,11 +3332,8 @@
       <c r="D159" s="1">
         <v>2</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>18</v>
       </c>
@@ -3813,11 +3346,8 @@
       <c r="D160" s="1">
         <v>2</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>18</v>
       </c>
@@ -3830,11 +3360,8 @@
       <c r="D161" s="1">
         <v>2</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
@@ -3847,11 +3374,8 @@
       <c r="D162" s="1">
         <v>1</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -3864,11 +3388,8 @@
       <c r="D163" s="1">
         <v>1</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>19</v>
       </c>
@@ -3881,11 +3402,8 @@
       <c r="D164" s="1">
         <v>1</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -3898,11 +3416,8 @@
       <c r="D165" s="1">
         <v>1</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -3915,11 +3430,8 @@
       <c r="D166" s="1">
         <v>1</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>19</v>
       </c>
@@ -3932,11 +3444,8 @@
       <c r="D167" s="1">
         <v>1</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>19</v>
       </c>
@@ -3949,11 +3458,8 @@
       <c r="D168" s="1">
         <v>1</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
@@ -3966,11 +3472,8 @@
       <c r="D169" s="1">
         <v>1</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -3983,11 +3486,8 @@
       <c r="D170" s="1">
         <v>1</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -4000,11 +3500,8 @@
       <c r="D171" s="1">
         <v>1</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -4017,11 +3514,8 @@
       <c r="D172" s="1">
         <v>2</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>19</v>
       </c>
@@ -4034,11 +3528,8 @@
       <c r="D173" s="1">
         <v>2</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,11 +3542,8 @@
       <c r="D174" s="1">
         <v>2</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>19</v>
       </c>
@@ -4068,11 +3556,8 @@
       <c r="D175" s="1">
         <v>2</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>19</v>
       </c>
@@ -4085,11 +3570,8 @@
       <c r="D176" s="1">
         <v>2</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>19</v>
       </c>
@@ -4102,11 +3584,8 @@
       <c r="D177" s="1">
         <v>2</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>19</v>
       </c>
@@ -4119,11 +3598,8 @@
       <c r="D178" s="1">
         <v>2</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>19</v>
       </c>
@@ -4136,11 +3612,8 @@
       <c r="D179" s="1">
         <v>2</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>19</v>
       </c>
@@ -4153,11 +3626,8 @@
       <c r="D180" s="1">
         <v>2</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>19</v>
       </c>
@@ -4170,11 +3640,8 @@
       <c r="D181" s="1">
         <v>2</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>19</v>
       </c>
@@ -4187,11 +3654,8 @@
       <c r="D182" s="1">
         <v>1</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>19</v>
       </c>
@@ -4204,11 +3668,8 @@
       <c r="D183" s="1">
         <v>1</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>19</v>
       </c>
@@ -4221,11 +3682,8 @@
       <c r="D184" s="1">
         <v>1</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>19</v>
       </c>
@@ -4238,11 +3696,8 @@
       <c r="D185" s="1">
         <v>1</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>19</v>
       </c>
@@ -4255,11 +3710,8 @@
       <c r="D186" s="1">
         <v>1</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>19</v>
       </c>
@@ -4272,11 +3724,8 @@
       <c r="D187" s="1">
         <v>1</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>19</v>
       </c>
@@ -4289,11 +3738,8 @@
       <c r="D188" s="1">
         <v>1</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>19</v>
       </c>
@@ -4306,11 +3752,8 @@
       <c r="D189" s="1">
         <v>1</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>19</v>
       </c>
@@ -4323,11 +3766,8 @@
       <c r="D190" s="1">
         <v>1</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>19</v>
       </c>
@@ -4340,11 +3780,8 @@
       <c r="D191" s="1">
         <v>1</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>19</v>
       </c>
@@ -4357,11 +3794,8 @@
       <c r="D192" s="1">
         <v>2</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>19</v>
       </c>
@@ -4374,11 +3808,8 @@
       <c r="D193" s="1">
         <v>2</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>19</v>
       </c>
@@ -4391,11 +3822,8 @@
       <c r="D194" s="1">
         <v>2</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>19</v>
       </c>
@@ -4408,11 +3836,8 @@
       <c r="D195" s="1">
         <v>2</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>19</v>
       </c>
@@ -4425,11 +3850,8 @@
       <c r="D196" s="1">
         <v>2</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>19</v>
       </c>
@@ -4442,11 +3864,8 @@
       <c r="D197" s="1">
         <v>2</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
@@ -4459,11 +3878,8 @@
       <c r="D198" s="1">
         <v>2</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>19</v>
       </c>
@@ -4476,11 +3892,8 @@
       <c r="D199" s="1">
         <v>2</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>19</v>
       </c>
@@ -4493,11 +3906,8 @@
       <c r="D200" s="1">
         <v>2</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>19</v>
       </c>
@@ -4510,11 +3920,8 @@
       <c r="D201" s="1">
         <v>2</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>19</v>
       </c>
@@ -4527,11 +3934,8 @@
       <c r="D202" s="1">
         <v>1</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -4544,11 +3948,8 @@
       <c r="D203" s="1">
         <v>1</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>19</v>
       </c>
@@ -4561,11 +3962,8 @@
       <c r="D204" s="1">
         <v>1</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>19</v>
       </c>
@@ -4578,11 +3976,8 @@
       <c r="D205" s="1">
         <v>1</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>19</v>
       </c>
@@ -4595,11 +3990,8 @@
       <c r="D206" s="1">
         <v>1</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>19</v>
       </c>
@@ -4612,11 +4004,8 @@
       <c r="D207" s="1">
         <v>1</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>19</v>
       </c>
@@ -4629,11 +4018,8 @@
       <c r="D208" s="1">
         <v>1</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>19</v>
       </c>
@@ -4646,11 +4032,8 @@
       <c r="D209" s="1">
         <v>1</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>19</v>
       </c>
@@ -4663,11 +4046,8 @@
       <c r="D210" s="1">
         <v>1</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>19</v>
       </c>
@@ -4680,11 +4060,8 @@
       <c r="D211" s="1">
         <v>1</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>19</v>
       </c>
@@ -4697,11 +4074,8 @@
       <c r="D212" s="1">
         <v>2</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>19</v>
       </c>
@@ -4714,11 +4088,8 @@
       <c r="D213" s="1">
         <v>2</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>19</v>
       </c>
@@ -4731,11 +4102,8 @@
       <c r="D214" s="1">
         <v>2</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>19</v>
       </c>
@@ -4748,11 +4116,8 @@
       <c r="D215" s="1">
         <v>2</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>19</v>
       </c>
@@ -4765,11 +4130,8 @@
       <c r="D216" s="1">
         <v>2</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -4782,11 +4144,8 @@
       <c r="D217" s="1">
         <v>2</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>19</v>
       </c>
@@ -4799,11 +4158,8 @@
       <c r="D218" s="1">
         <v>2</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>19</v>
       </c>
@@ -4816,11 +4172,8 @@
       <c r="D219" s="1">
         <v>2</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>19</v>
       </c>
@@ -4833,11 +4186,8 @@
       <c r="D220" s="1">
         <v>2</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>19</v>
       </c>
@@ -4850,11 +4200,8 @@
       <c r="D221" s="1">
         <v>2</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>19</v>
       </c>
@@ -4867,11 +4214,8 @@
       <c r="D222" s="1">
         <v>1</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>19</v>
       </c>
@@ -4884,11 +4228,8 @@
       <c r="D223" s="1">
         <v>1</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>19</v>
       </c>
@@ -4901,11 +4242,8 @@
       <c r="D224" s="1">
         <v>1</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>19</v>
       </c>
@@ -4918,11 +4256,8 @@
       <c r="D225" s="1">
         <v>1</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>19</v>
       </c>
@@ -4935,11 +4270,8 @@
       <c r="D226" s="1">
         <v>1</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>19</v>
       </c>
@@ -4952,11 +4284,8 @@
       <c r="D227" s="1">
         <v>1</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>19</v>
       </c>
@@ -4969,11 +4298,8 @@
       <c r="D228" s="1">
         <v>1</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>19</v>
       </c>
@@ -4986,11 +4312,8 @@
       <c r="D229" s="1">
         <v>1</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>19</v>
       </c>
@@ -5003,11 +4326,8 @@
       <c r="D230" s="1">
         <v>1</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>19</v>
       </c>
@@ -5020,11 +4340,8 @@
       <c r="D231" s="1">
         <v>1</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>19</v>
       </c>
@@ -5037,11 +4354,8 @@
       <c r="D232" s="1">
         <v>2</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>19</v>
       </c>
@@ -5054,11 +4368,8 @@
       <c r="D233" s="1">
         <v>2</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>19</v>
       </c>
@@ -5071,11 +4382,8 @@
       <c r="D234" s="1">
         <v>2</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -5088,11 +4396,8 @@
       <c r="D235" s="1">
         <v>2</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>19</v>
       </c>
@@ -5105,11 +4410,8 @@
       <c r="D236" s="1">
         <v>2</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>19</v>
       </c>
@@ -5122,11 +4424,8 @@
       <c r="D237" s="1">
         <v>2</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
@@ -5139,11 +4438,8 @@
       <c r="D238" s="1">
         <v>2</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>19</v>
       </c>
@@ -5156,11 +4452,8 @@
       <c r="D239" s="1">
         <v>2</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -5173,11 +4466,8 @@
       <c r="D240" s="1">
         <v>2</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>19</v>
       </c>
@@ -5190,11 +4480,8 @@
       <c r="D241" s="1">
         <v>2</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>20</v>
       </c>
@@ -5207,9 +4494,8 @@
       <c r="D242" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E242" s="1"/>
-    </row>
-    <row r="243" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>20</v>
       </c>
@@ -5222,9 +4508,8 @@
       <c r="D243" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E243" s="1"/>
-    </row>
-    <row r="244" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>20</v>
       </c>
@@ -5237,9 +4522,8 @@
       <c r="D244" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E244" s="1"/>
-    </row>
-    <row r="245" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>20</v>
       </c>
@@ -5252,9 +4536,8 @@
       <c r="D245" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E245" s="1"/>
-    </row>
-    <row r="246" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>20</v>
       </c>
@@ -5267,9 +4550,8 @@
       <c r="D246" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E246" s="1"/>
-    </row>
-    <row r="247" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>20</v>
       </c>
@@ -5282,9 +4564,8 @@
       <c r="D247" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E247" s="1"/>
-    </row>
-    <row r="248" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>20</v>
       </c>
@@ -5297,9 +4578,8 @@
       <c r="D248" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E248" s="1"/>
-    </row>
-    <row r="249" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
@@ -5312,9 +4592,8 @@
       <c r="D249" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E249" s="1"/>
-    </row>
-    <row r="250" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>20</v>
       </c>
@@ -5327,9 +4606,8 @@
       <c r="D250" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>20</v>
       </c>
@@ -5342,9 +4620,8 @@
       <c r="D251" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E251" s="1"/>
-    </row>
-    <row r="252" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>20</v>
       </c>
@@ -5357,9 +4634,8 @@
       <c r="D252" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E252" s="1"/>
-    </row>
-    <row r="253" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>20</v>
       </c>
@@ -5372,9 +4648,8 @@
       <c r="D253" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>20</v>
       </c>
@@ -5387,9 +4662,8 @@
       <c r="D254" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E254" s="1"/>
-    </row>
-    <row r="255" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>20</v>
       </c>
@@ -5402,9 +4676,8 @@
       <c r="D255" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E255" s="1"/>
-    </row>
-    <row r="256" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>20</v>
       </c>
@@ -5417,9 +4690,8 @@
       <c r="D256" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E256" s="1"/>
-    </row>
-    <row r="257" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>20</v>
       </c>
@@ -5432,9 +4704,8 @@
       <c r="D257" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E257" s="1"/>
-    </row>
-    <row r="258" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,9 +4718,8 @@
       <c r="D258" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E258" s="1"/>
-    </row>
-    <row r="259" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>20</v>
       </c>
@@ -5462,9 +4732,8 @@
       <c r="D259" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E259" s="1"/>
-    </row>
-    <row r="260" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>20</v>
       </c>
@@ -5477,9 +4746,8 @@
       <c r="D260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E260" s="1"/>
-    </row>
-    <row r="261" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>20</v>
       </c>
@@ -5492,9 +4760,8 @@
       <c r="D261" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E261" s="1"/>
-    </row>
-    <row r="262" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>20</v>
       </c>
@@ -5507,9 +4774,8 @@
       <c r="D262" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E262" s="1"/>
-    </row>
-    <row r="263" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>20</v>
       </c>
@@ -5522,9 +4788,8 @@
       <c r="D263" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E263" s="1"/>
-    </row>
-    <row r="264" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>20</v>
       </c>
@@ -5537,9 +4802,8 @@
       <c r="D264" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>20</v>
       </c>
@@ -5552,9 +4816,8 @@
       <c r="D265" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E265" s="1"/>
-    </row>
-    <row r="266" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>20</v>
       </c>
@@ -5567,9 +4830,8 @@
       <c r="D266" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E266" s="1"/>
-    </row>
-    <row r="267" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>20</v>
       </c>
@@ -5582,9 +4844,8 @@
       <c r="D267" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E267" s="1"/>
-    </row>
-    <row r="268" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>20</v>
       </c>
@@ -5597,9 +4858,8 @@
       <c r="D268" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E268" s="1"/>
-    </row>
-    <row r="269" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>20</v>
       </c>
@@ -5612,9 +4872,8 @@
       <c r="D269" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E269" s="1"/>
-    </row>
-    <row r="270" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>20</v>
       </c>
@@ -5627,9 +4886,8 @@
       <c r="D270" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E270" s="1"/>
-    </row>
-    <row r="271" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>20</v>
       </c>
@@ -5642,86 +4900,9 @@
       <c r="D271" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E271" s="1"/>
-    </row>
-    <row r="272" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-    </row>
-    <row r="273" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-    </row>
-    <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-    </row>
-    <row r="275" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-    </row>
-    <row r="276" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-    </row>
-    <row r="277" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-    </row>
-    <row r="278" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-    </row>
-    <row r="279" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-    </row>
-    <row r="280" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-    </row>
-    <row r="281" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-    </row>
-    <row r="282" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>